--- a/src/main/resources/com/blaze/data/TestDataAPI.xlsx
+++ b/src/main/resources/com/blaze/data/TestDataAPI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Yes</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>America/Los_Angeles</t>
   </si>
 </sst>
 </file>
@@ -526,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -540,14 +546,15 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="7" width="13" style="3" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="10" width="13" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
-    <col min="20" max="20" width="15.44140625" customWidth="1"/>
-    <col min="21" max="21" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="11" width="13" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" customWidth="1"/>
+    <col min="22" max="22" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -573,13 +580,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="40.799999999999997">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="40.799999999999997">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -605,9 +615,12 @@
         <v>16</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
